--- a/data/tareas-actualizado.xlsx
+++ b/data/tareas-actualizado.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYECTOS JM 2024\TURGAS\06-01-25-jm-cronograma planta mqta\21-04-25-App de Gestión de Turnos, Tareas y Reporte de Avance\estructura_app_gestion_turnos\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3961B860-03A3-43CF-854D-39FE77E42CDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{812E0EA6-9093-440B-A84C-73EFDA2552C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3645" yWindow="2520" windowWidth="23010" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -67,9 +67,6 @@
     <t>img1.jpg</t>
   </si>
   <si>
-    <t>Juan Salguero</t>
-  </si>
-  <si>
     <t>Soldadura criogénica</t>
   </si>
   <si>
@@ -82,12 +79,6 @@
     <t>img2.jpg</t>
   </si>
   <si>
-    <t>Luis Gomez</t>
-  </si>
-  <si>
-    <t>Montaje de tubería</t>
-  </si>
-  <si>
     <t>Completada</t>
   </si>
   <si>
@@ -251,6 +242,39 @@
   </si>
   <si>
     <t>T019</t>
+  </si>
+  <si>
+    <t>2025-04-25 11:40:18</t>
+  </si>
+  <si>
+    <t>Grupo D</t>
+  </si>
+  <si>
+    <t>Montaje de tubería-sool fan cooler-plt mqta</t>
+  </si>
+  <si>
+    <t>T020</t>
+  </si>
+  <si>
+    <t>Hidrociclon 4</t>
+  </si>
+  <si>
+    <t>T021</t>
+  </si>
+  <si>
+    <t>Vacios plta mqta-Arregle el hidrocilon que falta por quitar mirilla-mqta</t>
+  </si>
+  <si>
+    <t>T022</t>
+  </si>
+  <si>
+    <t>Prefabricar las plataformas de los tanques de gnl-operaciones-mqta</t>
+  </si>
+  <si>
+    <t>T023</t>
+  </si>
+  <si>
+    <t>Destapar las cisternas de gnl-plt-Toqui</t>
   </si>
 </sst>
 </file>
@@ -312,11 +336,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,18 +647,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +678,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -665,350 +694,404 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F2">
         <v>100</v>
       </c>
-      <c r="G2" t="s">
-        <v>26</v>
+      <c r="G2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="J2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F3">
         <v>100</v>
       </c>
-      <c r="G3" t="s">
-        <v>29</v>
+      <c r="G3" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>22</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F5">
         <v>100</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
+      <c r="G5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
       </c>
       <c r="J5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6">
         <v>100</v>
       </c>
-      <c r="G6" t="s">
-        <v>36</v>
+      <c r="G6" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
       </c>
       <c r="F7">
         <v>100</v>
       </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F8">
         <v>100</v>
       </c>
-      <c r="G8" t="s">
-        <v>39</v>
+      <c r="G8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
       </c>
       <c r="J8" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9">
         <v>100</v>
       </c>
-      <c r="G9" t="s">
-        <v>42</v>
+      <c r="G9" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="K9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
       </c>
       <c r="F10">
         <v>100</v>
       </c>
-      <c r="G10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F11">
         <v>100</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
+      <c r="G11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
       </c>
       <c r="J11" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F12">
         <v>100</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F13">
         <v>60</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K13" t="s">
         <v>18</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>22</v>
       </c>
       <c r="F14">
         <v>100</v>
       </c>
-      <c r="G14">
-        <v>45748</v>
+      <c r="G14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
         <v>12</v>
@@ -1016,80 +1099,95 @@
       <c r="F15">
         <v>30</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
       <c r="J15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F16">
         <v>50</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K16" t="s">
         <v>18</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" t="s">
-        <v>22</v>
       </c>
       <c r="F17">
         <v>100</v>
       </c>
-      <c r="G17">
-        <v>45748</v>
+      <c r="G17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>20</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="L17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -1097,66 +1195,197 @@
       <c r="F18">
         <v>30</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
       <c r="J18" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>16</v>
-      </c>
-      <c r="E19" t="s">
-        <v>17</v>
       </c>
       <c r="F19">
         <v>50</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" t="s">
         <v>18</v>
       </c>
-      <c r="K19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20">
+        <v>45757</v>
+      </c>
+      <c r="I20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <v>45748</v>
-      </c>
-      <c r="I20" t="s">
-        <v>23</v>
-      </c>
       <c r="J20" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" t="s">
+        <v>14</v>
+      </c>
+      <c r="L21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>45773</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+      <c r="J22" t="s">
+        <v>14</v>
+      </c>
+      <c r="L22" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
         <v>24</v>
+      </c>
+      <c r="D23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>45773</v>
+      </c>
+      <c r="L23" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>45773</v>
+      </c>
+      <c r="L24" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
